--- a/BBDD_FINAL_Mod_Lin.xlsx
+++ b/BBDD_FINAL_Mod_Lin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/MAGISTER/modelos_lineales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A11AD7-BE33-6E49-8E76-7D61DF6C3476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2ABD55-BB29-394F-8A38-5E40FF85AA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-960" windowWidth="38400" windowHeight="21100" xr2:uid="{FEA86073-B9CF-40E0-94F0-0107ED00A37A}"/>
   </bookViews>
@@ -9206,9 +9206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BA8B30-72AC-4817-B8A3-86FA61073EF7}">
   <dimension ref="A1:X1110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1048540" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1048548" sqref="C1048548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -92489,7 +92489,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X1110" xr:uid="{8325BA5F-117C-B145-99AE-B92154F7C071}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>